--- a/Source/VariousSupporting/intFormFlagSettings.xlsx
+++ b/Source/VariousSupporting/intFormFlagSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MaineBoat\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerha\Documents\MaineBoat\Source\VariousSupporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53156FE-9839-4021-BEAE-55DE2DFB992A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B14713-F6A5-4304-AAB0-9F3FE4ABADF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="3465" windowWidth="6855" windowHeight="11835" xr2:uid="{DC449160-31CA-4335-9856-06E918A14E46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DC449160-31CA-4335-9856-06E918A14E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>intFormFlag</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>frmStrukturUtstyrJobbListe</t>
+  </si>
+  <si>
+    <t>frmInnsatsScr</t>
+  </si>
+  <si>
+    <t>frmDugnadInnsatsScr</t>
   </si>
 </sst>
 </file>
@@ -417,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F867619-3770-4056-9525-437B84D61C8A}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,6 +527,9 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -537,82 +546,85 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
